--- a/VizsgaKerdesek.xlsx
+++ b/VizsgaKerdesek.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programozas\Github Repos\Python\LearnHelper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programozas\Github Repos\Learn-helper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097E60A2-E800-4094-96C4-E019AD0F36DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD75768-66E6-42FB-92DD-E4D4FBA9B6DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="alap" sheetId="1" r:id="rId1"/>
@@ -4234,17 +4234,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hivatkozás" xfId="1" builtinId="8"/>
@@ -4261,7 +4266,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -5584,6 +5589,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E471503F-7429-49EF-990A-654E0C6803E9}" name="Táblázat1" displayName="Táblázat1" ref="A1:E249" totalsRowShown="0" dataDxfId="5">
   <autoFilter ref="A1:E249" xr:uid="{E471503F-7429-49EF-990A-654E0C6803E9}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E249">
+    <sortCondition ref="A1:A249"/>
+  </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{146BF2A8-2515-4E65-AEE8-8481ECA50EE8}" name="Sorszám" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{95B03DCD-7F07-4600-A0F2-99C85821C4A0}" name="Kérdés" dataDxfId="3"/>
@@ -5860,23 +5868,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E249"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C253" sqref="C253"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.33203125" customWidth="1"/>
-    <col min="2" max="2" width="28.44140625" customWidth="1"/>
-    <col min="3" max="3" width="36.44140625" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="55" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
@@ -5889,28 +5897,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="1" t="e" vm="2">
@@ -5921,7 +5929,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -5936,7 +5944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -5951,7 +5959,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -5966,7 +5974,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -5981,7 +5989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -5996,7 +6004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -6011,7 +6019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -6026,7 +6034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -6041,7 +6049,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -6056,7 +6064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -6071,7 +6079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -6086,7 +6094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -6101,7 +6109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -6116,7 +6124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -6131,7 +6139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -6146,7 +6154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -6161,7 +6169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -6176,7 +6184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -6191,7 +6199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -6206,7 +6214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -6221,7 +6229,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -6236,7 +6244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -6251,7 +6259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -6266,7 +6274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -6281,7 +6289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -6296,7 +6304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -6311,7 +6319,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -6326,7 +6334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -6341,7 +6349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -6356,7 +6364,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -6371,7 +6379,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -6386,7 +6394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -6401,7 +6409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -6416,7 +6424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -6431,7 +6439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -6446,7 +6454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -6461,7 +6469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -6476,7 +6484,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -6491,7 +6499,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -6506,7 +6514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -6521,7 +6529,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -6536,7 +6544,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -6551,7 +6559,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -6566,7 +6574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -6581,7 +6589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -6596,7 +6604,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -6611,7 +6619,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -6626,7 +6634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -6636,14 +6644,14 @@
       <c r="C51" s="1" t="e" vm="50">
         <v>#VALUE!</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="2" t="s">
         <v>55</v>
       </c>
       <c r="E51" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -6658,7 +6666,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -6673,7 +6681,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -6688,7 +6696,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -6703,7 +6711,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -6718,7 +6726,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -6733,7 +6741,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -6748,7 +6756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -6763,7 +6771,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -6778,7 +6786,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -6793,7 +6801,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -6808,7 +6816,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -6823,7 +6831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -6838,7 +6846,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -6853,7 +6861,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -6868,7 +6876,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -6883,7 +6891,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -6898,7 +6906,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -6913,7 +6921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -6928,7 +6936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -6943,7 +6951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -6958,7 +6966,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -6973,7 +6981,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -6988,7 +6996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -7003,7 +7011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -7018,7 +7026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -7033,7 +7041,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -7048,7 +7056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -7063,7 +7071,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -7078,7 +7086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -7093,7 +7101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -7108,7 +7116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -7123,7 +7131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -7138,7 +7146,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -7153,7 +7161,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -7168,7 +7176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -7183,7 +7191,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -7198,7 +7206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -7213,7 +7221,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -7228,7 +7236,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -7243,7 +7251,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -7253,14 +7261,14 @@
       <c r="C92" s="1" t="e" vm="91">
         <v>#VALUE!</v>
       </c>
-      <c r="D92" s="3" t="s">
+      <c r="D92" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E92" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -7275,7 +7283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -7290,7 +7298,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -7305,7 +7313,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -7320,7 +7328,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -7330,14 +7338,14 @@
       <c r="C97" s="1" t="e" vm="96">
         <v>#VALUE!</v>
       </c>
-      <c r="D97" s="5" t="s">
+      <c r="D97" s="3" t="s">
         <v>105</v>
       </c>
       <c r="E97" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -7352,7 +7360,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -7367,7 +7375,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -7382,7 +7390,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -7397,7 +7405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -7412,7 +7420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -7427,7 +7435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -7442,7 +7450,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -7457,7 +7465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -7472,7 +7480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -7487,7 +7495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -7502,7 +7510,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -7517,7 +7525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -7532,7 +7540,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -7547,7 +7555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -7562,7 +7570,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -7577,7 +7585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -7592,7 +7600,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -7607,7 +7615,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -7622,7 +7630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -7637,7 +7645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -7652,7 +7660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -7667,7 +7675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -7682,7 +7690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -7697,7 +7705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -7712,7 +7720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -7727,7 +7735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -7742,7 +7750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -7757,7 +7765,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -7772,7 +7780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -7787,7 +7795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -7797,14 +7805,14 @@
       <c r="C128" s="1" t="e" vm="127">
         <v>#VALUE!</v>
       </c>
-      <c r="D128" s="3" t="s">
+      <c r="D128" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E128" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -7819,7 +7827,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -7834,7 +7842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -7844,14 +7852,14 @@
       <c r="C131" s="1" t="e" vm="130">
         <v>#VALUE!</v>
       </c>
-      <c r="D131" s="5" t="s">
+      <c r="D131" s="3" t="s">
         <v>149</v>
       </c>
       <c r="E131" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -7861,14 +7869,14 @@
       <c r="C132" s="1" t="e" vm="131">
         <v>#VALUE!</v>
       </c>
-      <c r="D132" s="3" t="s">
+      <c r="D132" s="2" t="s">
         <v>148</v>
       </c>
       <c r="E132" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -7883,7 +7891,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -7898,7 +7906,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -7913,7 +7921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -7928,7 +7936,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -7943,7 +7951,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -7958,7 +7966,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -7973,7 +7981,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -7983,14 +7991,14 @@
       <c r="C140" s="1" t="e" vm="139">
         <v>#VALUE!</v>
       </c>
-      <c r="D140" s="3" t="s">
+      <c r="D140" s="2" t="s">
         <v>147</v>
       </c>
       <c r="E140" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -8005,7 +8013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -8020,7 +8028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -8035,7 +8043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -8050,7 +8058,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -8060,14 +8068,14 @@
       <c r="C145" s="1" t="e" vm="144">
         <v>#VALUE!</v>
       </c>
-      <c r="D145" s="3" t="s">
+      <c r="D145" s="2" t="s">
         <v>156</v>
       </c>
       <c r="E145" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -8082,7 +8090,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -8097,7 +8105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -8112,7 +8120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -8127,7 +8135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -8142,7 +8150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -8157,7 +8165,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -8172,7 +8180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -8187,7 +8195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -8202,7 +8210,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -8217,7 +8225,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -8232,7 +8240,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -8247,7 +8255,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -8262,7 +8270,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -8277,7 +8285,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -8292,7 +8300,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -8307,7 +8315,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -8322,7 +8330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -8337,7 +8345,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -8352,7 +8360,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -8367,7 +8375,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -8382,7 +8390,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -8397,7 +8405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -8412,7 +8420,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -8427,7 +8435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -8442,7 +8450,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -8457,7 +8465,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -8472,7 +8480,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -8487,7 +8495,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -8502,7 +8510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -8517,7 +8525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -8532,7 +8540,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -8547,7 +8555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -8562,7 +8570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -8577,7 +8585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -8592,7 +8600,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -8607,7 +8615,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -8622,7 +8630,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -8637,7 +8645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -8652,7 +8660,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -8667,7 +8675,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -8682,7 +8690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -8697,7 +8705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -8712,7 +8720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -8727,7 +8735,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -8737,14 +8745,14 @@
       <c r="C190" s="1" t="e" vm="189">
         <v>#VALUE!</v>
       </c>
-      <c r="D190" s="3" t="s">
+      <c r="D190" s="2" t="s">
         <v>202</v>
       </c>
       <c r="E190" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -8759,7 +8767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -8774,7 +8782,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -8789,7 +8797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -8804,7 +8812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -8819,7 +8827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -8834,7 +8842,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -8849,7 +8857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -8864,7 +8872,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -8879,7 +8887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -8894,7 +8902,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -8909,7 +8917,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -8924,7 +8932,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -8939,7 +8947,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -8954,7 +8962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -8969,7 +8977,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -8984,7 +8992,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -8999,7 +9007,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -9014,7 +9022,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -9029,7 +9037,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -9044,7 +9052,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -9059,7 +9067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -9074,7 +9082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -9089,7 +9097,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -9104,7 +9112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -9119,7 +9127,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -9134,7 +9142,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -9149,7 +9157,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -9164,7 +9172,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -9179,7 +9187,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -9194,7 +9202,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -9209,7 +9217,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -9224,7 +9232,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -9239,7 +9247,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -9254,7 +9262,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -9269,7 +9277,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -9284,7 +9292,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -9299,7 +9307,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -9314,7 +9322,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -9329,7 +9337,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -9344,7 +9352,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -9359,7 +9367,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -9374,7 +9382,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -9389,7 +9397,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -9404,7 +9412,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -9419,7 +9427,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -9434,7 +9442,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -9449,7 +9457,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -9464,7 +9472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -9479,7 +9487,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -9494,7 +9502,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -9509,7 +9517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -9524,7 +9532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -9539,7 +9547,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -9554,7 +9562,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -9569,7 +9577,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -9584,7 +9592,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -9599,7 +9607,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -9614,7 +9622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>248</v>
       </c>
